--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2162542D-5965-4A4C-B521-4DDD0C18CAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F51D61-3433-4840-92C9-2A73E81D91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="500" windowWidth="20480" windowHeight="17440" xr2:uid="{26199B57-26C7-084B-B921-6AEE11B0DA02}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>蔚来（正式批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +503,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -647,7 +651,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -655,7 +659,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -663,12 +667,15 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>8.09</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -1,171 +1,559 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F51D61-3433-4840-92C9-2A73E81D91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="17900" yWindow="500" windowWidth="20480" windowHeight="17440" xr2:uid="{26199B57-26C7-084B-B921-6AEE11B0DA02}"/>
+    <workbookView windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>投简历时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
   </si>
   <si>
     <t>趋势科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔚来(提前批)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉</t>
   </si>
   <si>
     <t>远景科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投</t>
   </si>
   <si>
     <t>美团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已发未做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未投</t>
   </si>
   <si>
     <t>大疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>荣耀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>momenta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地平线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海康威视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>去哪网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>紫光展锐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>garena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜狐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>京东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Zoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奇安信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.qianxin.com/campus/index</t>
   </si>
   <si>
     <t>蔚来（正式批）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互联网</t>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/net/position</t>
+  </si>
+  <si>
+    <t>网易雷火</t>
+  </si>
+  <si>
+    <t>https://leihuo.163.com/campus/#/full</t>
+  </si>
+  <si>
+    <t>网易互娱</t>
+  </si>
+  <si>
+    <t>https://game.campus.163.com/position/12?sc=34</t>
+  </si>
+  <si>
+    <t>戴尔</t>
+  </si>
+  <si>
+    <t>https://chinajobs.dell.com/%e4%bd%8d%e7%bd%ae/jobs/25848/1814991/2</t>
+  </si>
+  <si>
+    <t>度小满</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>绿盟</t>
+  </si>
+  <si>
+    <t>海尔</t>
+  </si>
+  <si>
+    <t>亚马逊</t>
+  </si>
+  <si>
+    <t>帆软</t>
+  </si>
+  <si>
+    <t>字节跳动</t>
+  </si>
+  <si>
+    <t>geek+</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/geekplus/77928#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>西山居</t>
+  </si>
+  <si>
+    <t>恒生</t>
+  </si>
+  <si>
+    <t>https://campus.hundsun.com/campus/detail?jobAdId=94863d8b-6a53-4ad1-8793-c7eb2654fd63</t>
+  </si>
+  <si>
+    <t>tcl</t>
+  </si>
+  <si>
+    <t>http://campus.tcl.com/post/details.html?post_code=all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -173,31 +561,368 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,7 +971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,26 +1004,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -331,23 +1039,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,32 +1180,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCDFE93-0D86-5F4D-9D65-EC7A509F204A}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.3833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,159 +1214,289 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="1">
-        <v>8.0399999999999991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>8.04</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>8.0399999999999991</v>
+        <v>8.04</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>8.0399999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>8.0399999999999991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>8.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>8.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>8.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>8.06</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>8.07</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>8.08</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>8.08</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>8.08</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>8.09</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <v>8.09</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="1">
         <v>8.09</v>
       </c>
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
+      <c r="A19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="1">
         <v>8.09</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" display="https://chinajobs.dell.com/%e4%bd%8d%e7%bd%ae/jobs/25848/1814991/2"/>
+    <hyperlink ref="B21" r:id="rId2" display="https://leihuo.163.com/campus/#/full"/>
+    <hyperlink ref="B20" r:id="rId3" display="https://campus.163.com/app/net/position"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://game.campus.163.com/position/12?sc=34"/>
+    <hyperlink ref="E24" r:id="rId5" display="https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/candidateHome/applications"/>
+    <hyperlink ref="E30" r:id="rId6" display="https://app.mokahr.com/campus_apply/geekplus/77928#/candidateHome/applications"/>
+    <hyperlink ref="E18" r:id="rId7" display="https://campus.qianxin.com/campus/index"/>
+    <hyperlink ref="E32" r:id="rId8" display="https://campus.hundsun.com/campus/detail?jobAdId=94863d8b-6a53-4ad1-8793-c7eb2654fd63"/>
+    <hyperlink ref="E33" r:id="rId9" display="http://campus.tcl.com/post/details.html?post_code=all"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12440"/>
+    <workbookView windowWidth="28800" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>公司名称</t>
   </si>
@@ -52,7 +52,7 @@
     <t>美团</t>
   </si>
   <si>
-    <t>已发未做</t>
+    <t>已做</t>
   </si>
   <si>
     <t>未投</t>
@@ -103,9 +103,6 @@
     <t>蔚来（正式批）</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>网易互联网</t>
   </si>
   <si>
@@ -170,6 +167,24 @@
   </si>
   <si>
     <t>http://campus.tcl.com/post/details.html?post_code=all</t>
+  </si>
+  <si>
+    <t>中兴</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/delivery</t>
+  </si>
+  <si>
+    <t>星环科技</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/transwarp/3196#/candidateHome/applications</t>
   </si>
 </sst>
 </file>
@@ -179,8 +194,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,6 +229,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -224,6 +246,46 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,29 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -266,6 +305,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -273,24 +334,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,45 +355,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,193 +377,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,17 +601,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +637,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,6 +657,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,155 +695,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,22 +826,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -837,13 +858,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -852,16 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
@@ -1186,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -1214,7 +1235,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1262,12 +1283,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>8.04</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1369,119 +1393,146 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1">
         <v>8.09</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="B24" s="1">
         <v>8.16</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="B25" s="1">
         <v>8.1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="9" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="B30" s="1">
         <v>8.16</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
+      <c r="E32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="13" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
+      <c r="E33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="13" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9" t="s">
         <v>51</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1495,6 +1546,8 @@
     <hyperlink ref="E18" r:id="rId7" display="https://campus.qianxin.com/campus/index"/>
     <hyperlink ref="E32" r:id="rId8" display="https://campus.hundsun.com/campus/detail?jobAdId=94863d8b-6a53-4ad1-8793-c7eb2654fd63"/>
     <hyperlink ref="E33" r:id="rId9" display="http://campus.tcl.com/post/details.html?post_code=all"/>
+    <hyperlink ref="E34" r:id="rId10" display="https://app.mokahr.com/campus-recruitment/zte/46903#/candidateHome/applications"/>
+    <hyperlink ref="E36" r:id="rId11" display="https://app.mokahr.com/campus_apply/transwarp/3196#/candidateHome/applications"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8813FA-EABC-C344-9D21-92A629DB2686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280"/>
+    <workbookView xWindow="8760" yWindow="500" windowWidth="26340" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>公司名称</t>
   </si>
@@ -185,19 +191,40 @@
   </si>
   <si>
     <t>https://app.mokahr.com/campus_apply/transwarp/3196#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/job/085c8bd3-20a8-4733-9082-a065e555949a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/recruit/campus/e/#/campus/my-apply</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,12 +237,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -224,139 +253,27 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,216 +282,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -597,255 +340,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,13 +368,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -885,65 +386,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1201,32 +680,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.1666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.3833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1239,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +733,7 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1262,10 +741,10 @@
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.04</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="16">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1273,112 +752,112 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
-        <v>8.04</v>
+      <c r="B5" s="16">
+        <v>8.0399999999999991</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
-        <v>8.04</v>
+      <c r="B6" s="16">
+        <v>8.0399999999999991</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <v>8.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="16">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>8.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="16">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
-        <v>8.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="16">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
-        <v>8.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="16">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="16">
         <v>8.06</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="16">
         <v>8.07</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="16">
         <v>8.08</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="16">
         <v>8.08</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="16">
         <v>8.08</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="16">
         <v>8.09</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="16">
         <v>8.09</v>
       </c>
     </row>
@@ -1386,105 +865,111 @@
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="16">
         <v>8.09</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="16">
         <v>8.09</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="16">
         <v>8.16</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="16">
         <v>8.1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="16">
         <v>8.16</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -1493,7 +978,7 @@
       <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1501,23 +986,23 @@
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="16">
         <v>8.18</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E35" t="s">
@@ -1525,31 +1010,70 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="16">
         <v>8.18</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="16">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="https://chinajobs.dell.com/%e4%bd%8d%e7%bd%ae/jobs/25848/1814991/2"/>
-    <hyperlink ref="B21" r:id="rId2" display="https://leihuo.163.com/campus/#/full"/>
-    <hyperlink ref="B20" r:id="rId3" display="https://campus.163.com/app/net/position"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://game.campus.163.com/position/12?sc=34"/>
-    <hyperlink ref="E24" r:id="rId5" display="https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/candidateHome/applications"/>
-    <hyperlink ref="E30" r:id="rId6" display="https://app.mokahr.com/campus_apply/geekplus/77928#/candidateHome/applications"/>
-    <hyperlink ref="E18" r:id="rId7" display="https://campus.qianxin.com/campus/index"/>
-    <hyperlink ref="E32" r:id="rId8" display="https://campus.hundsun.com/campus/detail?jobAdId=94863d8b-6a53-4ad1-8793-c7eb2654fd63"/>
-    <hyperlink ref="E33" r:id="rId9" display="http://campus.tcl.com/post/details.html?post_code=all"/>
-    <hyperlink ref="E34" r:id="rId10" display="https://app.mokahr.com/campus-recruitment/zte/46903#/candidateHome/applications"/>
-    <hyperlink ref="E36" r:id="rId11" display="https://app.mokahr.com/campus_apply/transwarp/3196#/candidateHome/applications"/>
+    <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E21" r:id="rId2" location="/full" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E22" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E24" r:id="rId5" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E30" r:id="rId6" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E34" r:id="rId10" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E36" r:id="rId11" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E38" r:id="rId12" location="/job/085c8bd3-20a8-4733-9082-a065e555949a" xr:uid="{D8B87620-F445-444D-B694-6DDDFFE3241E}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8813FA-EABC-C344-9D21-92A629DB2686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="500" windowWidth="26340" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>公司名称</t>
   </si>
@@ -112,6 +106,9 @@
     <t>网易互联网</t>
   </si>
   <si>
+    <t>8.20</t>
+  </si>
+  <si>
     <t>https://campus.163.com/app/net/position</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
     <t>恒生</t>
   </si>
   <si>
+    <t>8.21</t>
+  </si>
+  <si>
     <t>https://campus.hundsun.com/campus/detail?jobAdId=94863d8b-6a53-4ad1-8793-c7eb2654fd63</t>
   </si>
   <si>
@@ -194,40 +194,73 @@
   </si>
   <si>
     <t>OPPO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/post/detail?id=581&amp;privacyVal</t>
   </si>
   <si>
     <t>小米</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/job/085c8bd3-20a8-4733-9082-a065e555949a</t>
   </si>
   <si>
     <t>美的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>快手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/job/085c8bd3-20a8-4733-9082-a065e555949a</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://campus.kuaishou.cn/recruit/campus/e/#/campus/my-apply</t>
+  </si>
+  <si>
+    <t>满帮</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/manbang/46270#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>焦点科技</t>
+  </si>
+  <si>
+    <t>https://hr.focuschina.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,15 +270,90 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,27 +361,56 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,42 +419,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -340,12 +657,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -356,73 +912,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -680,32 +1279,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="21.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.3333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="56.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -718,13 +1317,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -733,347 +1332,377 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="2">
+        <v>8.04</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16">
-        <v>8.0399999999999991</v>
+      <c r="B5" s="2">
+        <v>8.04</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16">
-        <v>8.0399999999999991</v>
+      <c r="B6" s="2">
+        <v>8.04</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16">
-        <v>8.0399999999999991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="2">
+        <v>8.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="2">
+        <v>8.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="2">
+        <v>8.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="2">
+        <v>8.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="2">
         <v>8.06</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="2">
         <v>8.07</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="2">
         <v>8.08</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="2">
         <v>8.08</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="2">
         <v>8.08</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="2">
         <v>8.09</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="2">
         <v>8.09</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="2">
         <v>8.09</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="2">
         <v>8.09</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="B37" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="16">
-        <v>8.16</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="16">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="16">
-        <v>8.16</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="E38" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="16">
-        <v>8.18</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="16">
-        <v>8.18</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="16">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" t="s">
-        <v>63</v>
+      <c r="E42" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E21" r:id="rId2" location="/full" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E22" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E24" r:id="rId5" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E30" r:id="rId6" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E34" r:id="rId10" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E36" r:id="rId11" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E38" r:id="rId12" location="/job/085c8bd3-20a8-4733-9082-a065e555949a" xr:uid="{D8B87620-F445-444D-B694-6DDDFFE3241E}"/>
+    <hyperlink ref="E23" r:id="rId1" display="https://chinajobs.dell.com/%e4%bd%8d%e7%bd%ae/jobs/25848/1814991/2"/>
+    <hyperlink ref="E21" r:id="rId2" display="https://leihuo.163.com/campus/#/full"/>
+    <hyperlink ref="E20" r:id="rId3" display="https://campus.163.com/app/net/position"/>
+    <hyperlink ref="E22" r:id="rId4" display="https://game.campus.163.com/position/12?sc=34"/>
+    <hyperlink ref="E24" r:id="rId5" display="https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/candidateHome/applications"/>
+    <hyperlink ref="E30" r:id="rId6" display="https://app.mokahr.com/campus_apply/geekplus/77928#/candidateHome/applications"/>
+    <hyperlink ref="E18" r:id="rId7" display="https://campus.qianxin.com/campus/index"/>
+    <hyperlink ref="E32" r:id="rId8" display="https://campus.hundsun.com/campus/detail?jobAdId=94863d8b-6a53-4ad1-8793-c7eb2654fd63"/>
+    <hyperlink ref="E33" r:id="rId9" display="http://campus.tcl.com/post/details.html?post_code=all"/>
+    <hyperlink ref="E34" r:id="rId10" display="https://app.mokahr.com/campus-recruitment/zte/46903#/candidateHome/applications"/>
+    <hyperlink ref="E36" r:id="rId11" display="https://app.mokahr.com/campus_apply/transwarp/3196#/candidateHome/applications"/>
+    <hyperlink ref="E38" r:id="rId12" display="https://app.mokahr.com/campus_apply/xiaomi/47097#/job/085c8bd3-20a8-4733-9082-a065e555949a"/>
+    <hyperlink ref="E37" r:id="rId13" display="https://careers.oppo.com/campus/post/detail?id=581&amp;privacyVal"/>
+    <hyperlink ref="E41" r:id="rId14" display="https://app.mokahr.com/campus-recruitment/manbang/46270#/candidateHome/applications"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D20D51-A37F-514D-AB0C-088B7CEEE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18320" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>公司名称</t>
   </si>
@@ -224,19 +230,19 @@
   </si>
   <si>
     <t>https://hr.focuschina.com/</t>
+  </si>
+  <si>
+    <t>远景科技正式批</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/envisiongroup/43123?sourceToken=41fc8bb25c2e00cc59b659ffcd96f6fa#/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,12 +254,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -262,6 +270,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,147 +279,34 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,222 +315,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -657,255 +373,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,7 +410,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -954,74 +431,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1279,28 +725,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.1666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>10</v>
@@ -1352,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1361,50 +807,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>8.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>8.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>8.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
-        <v>8.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +858,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +866,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +874,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1436,7 +882,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1444,7 +890,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1452,7 +898,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1471,7 +917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -1536,28 +982,28 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -1568,7 +1014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
@@ -1644,7 +1090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:5">
       <c r="A39" s="12" t="s">
         <v>63</v>
       </c>
@@ -1685,24 +1131,37 @@
         <v>69</v>
       </c>
     </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="22">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" display="https://chinajobs.dell.com/%e4%bd%8d%e7%bd%ae/jobs/25848/1814991/2"/>
-    <hyperlink ref="E21" r:id="rId2" display="https://leihuo.163.com/campus/#/full"/>
-    <hyperlink ref="E20" r:id="rId3" display="https://campus.163.com/app/net/position"/>
-    <hyperlink ref="E22" r:id="rId4" display="https://game.campus.163.com/position/12?sc=34"/>
-    <hyperlink ref="E24" r:id="rId5" display="https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/candidateHome/applications"/>
-    <hyperlink ref="E30" r:id="rId6" display="https://app.mokahr.com/campus_apply/geekplus/77928#/candidateHome/applications"/>
-    <hyperlink ref="E18" r:id="rId7" display="https://campus.qianxin.com/campus/index"/>
-    <hyperlink ref="E32" r:id="rId8" display="https://campus.hundsun.com/campus/detail?jobAdId=94863d8b-6a53-4ad1-8793-c7eb2654fd63"/>
-    <hyperlink ref="E33" r:id="rId9" display="http://campus.tcl.com/post/details.html?post_code=all"/>
-    <hyperlink ref="E34" r:id="rId10" display="https://app.mokahr.com/campus-recruitment/zte/46903#/candidateHome/applications"/>
-    <hyperlink ref="E36" r:id="rId11" display="https://app.mokahr.com/campus_apply/transwarp/3196#/candidateHome/applications"/>
-    <hyperlink ref="E38" r:id="rId12" display="https://app.mokahr.com/campus_apply/xiaomi/47097#/job/085c8bd3-20a8-4733-9082-a065e555949a"/>
-    <hyperlink ref="E37" r:id="rId13" display="https://careers.oppo.com/campus/post/detail?id=581&amp;privacyVal"/>
-    <hyperlink ref="E41" r:id="rId14" display="https://app.mokahr.com/campus-recruitment/manbang/46270#/candidateHome/applications"/>
+    <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E22" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E41" r:id="rId14" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D20D51-A37F-514D-AB0C-088B7CEEE16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF0580-11FD-FF40-A3BA-5EE0B746E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18320" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18280" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>公司名称</t>
   </si>
@@ -236,6 +236,22 @@
   </si>
   <si>
     <t>https://app.mokahr.com/campus_apply/envisiongroup/43123?sourceToken=41fc8bb25c2e00cc59b659ffcd96f6fa#/</t>
+  </si>
+  <si>
+    <t>8.21</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯拉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -382,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +469,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1069,11 +1088,11 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="2">
-        <v>8.19</v>
+      <c r="B37" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>60</v>
@@ -1142,6 +1161,21 @@
       <c r="D43" s="20"/>
       <c r="E43" s="21" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF0580-11FD-FF40-A3BA-5EE0B746E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1991B9-8513-7743-BDA1-13ABC2BC27D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18280" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>公司名称</t>
   </si>
@@ -163,9 +163,6 @@
     <t>https://app.mokahr.com/campus_apply/geekplus/77928#/candidateHome/applications</t>
   </si>
   <si>
-    <t>西山居</t>
-  </si>
-  <si>
     <t>恒生</t>
   </si>
   <si>
@@ -251,6 +248,54 @@
   </si>
   <si>
     <t>阿里巴巴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiliBili</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用友</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业数金</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.22</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.yonyou.com/SU61108d5b0dcad4106ff62e80/pb/school.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>campus.hundsun.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.ctrip.com/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯音乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://join.tencentmusic.com/campus/</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,6 +518,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -750,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -956,7 +1013,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -1034,79 +1091,82 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="A32" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="E32" s="19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7" t="s">
-        <v>51</v>
+      <c r="A33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8.18</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2">
-        <v>8.18</v>
-      </c>
-      <c r="E34" s="19" t="s">
         <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
         <v>56</v>
       </c>
+      <c r="B35" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="2">
-        <v>8.18</v>
+      <c r="A36" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24" t="s">
-        <v>59</v>
+      <c r="A37" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1116,51 +1176,48 @@
       <c r="B39" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E40" t="s">
-        <v>65</v>
+      <c r="E40" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="A42" s="23" t="s">
         <v>69</v>
       </c>
+      <c r="B42" s="22">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="22">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21" t="s">
-        <v>71</v>
+      <c r="A43" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1176,6 +1233,53 @@
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1188,13 +1292,16 @@
     <hyperlink ref="E24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E41" r:id="rId14" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E32" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E33" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E40" r:id="rId14" location="/candidateHome/applications" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E47" r:id="rId15" xr:uid="{271ED4A3-BEF2-9C4C-BD16-0D3D00F70FDF}"/>
+    <hyperlink ref="E49" r:id="rId16" xr:uid="{4C888DB0-D51C-5247-B939-BF5B053E90C5}"/>
+    <hyperlink ref="E50" r:id="rId17" xr:uid="{864F81FF-D0C6-DF4C-BBD1-6DC1DBEA4D61}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1991B9-8513-7743-BDA1-13ABC2BC27D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCD8F1-29B5-1A43-B465-DAD420AEED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18280" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>公司名称</t>
   </si>
@@ -296,6 +296,38 @@
   </si>
   <si>
     <t>https://join.tencentmusic.com/campus/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>好未来</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.23</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.100tal.com/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.24</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=7bd02db8a2bd5faa8d4a0c215dd18cfa09667e6e8bf3c9ff9dc8098d3df7d501a1e80a694eae1c278635d13155f54f9ef0e75e1827edde32738241b886b0f31cf7f0724d311e52dd4544fd324a642988754ff736138ff16ce4747a20c9f64a9960b2a87a52e4e6a3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/resume/mycollection</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -807,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1280,6 +1312,39 @@
       </c>
       <c r="E50" s="28" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1302,6 +1367,9 @@
     <hyperlink ref="E47" r:id="rId15" xr:uid="{271ED4A3-BEF2-9C4C-BD16-0D3D00F70FDF}"/>
     <hyperlink ref="E49" r:id="rId16" xr:uid="{4C888DB0-D51C-5247-B939-BF5B053E90C5}"/>
     <hyperlink ref="E50" r:id="rId17" xr:uid="{864F81FF-D0C6-DF4C-BBD1-6DC1DBEA4D61}"/>
+    <hyperlink ref="E51" r:id="rId18" xr:uid="{B2CEB87C-F0BF-AB40-B560-5ABFA74C10B7}"/>
+    <hyperlink ref="E52" r:id="rId19" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=7bd02db8a2bd5faa8d4a0c215dd18cfa09667e6e8bf3c9ff9dc8098d3df7d501a1e80a694eae1c278635d13155f54f9ef0e75e1827edde32738241b886b0f31cf7f0724d311e52dd4544fd324a642988754ff736138ff16ce4747a20c9f64a9960b2a87a52e4e6a3" xr:uid="{60263676-3C28-DC43-BE56-96F21BBB733A}"/>
+    <hyperlink ref="E53" r:id="rId20" xr:uid="{24269EEF-542B-FA48-AFDC-ED3D1C0A3123}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCD8F1-29B5-1A43-B465-DAD420AEED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61273107-08B6-B34F-85E5-0F4F0DA6CC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18280" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="18280" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$58</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>公司名称</t>
   </si>
@@ -328,6 +331,85 @@
   </si>
   <si>
     <t>https://talent.lenovo.com.cn/resume/mycollection</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://360campus.zhiye.com/jobs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美世界</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://recruit.games.wanmei.com/campus-recruitment/pwrd/45131/#/jobs?commitment=%E5%85%A8%E8%81%8C&amp;zhineng=82130&amp;page=1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>东软</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP-LINK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.xiaohongshu.com/jobs/6653/campus</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.tp-link.com.cn/preview</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bilibili.com/campus/positions/5762</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>米哈游</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.mihoyo.com/#/campus/resume/position/preview/45</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科曙光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sugon.zhiye.com/Portal/Apply/Index</t>
+  </si>
+  <si>
+    <t>咪咕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州银行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.01</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -839,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1263,8 +1345,14 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="24" t="s">
         <v>75</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1347,7 +1435,95 @@
         <v>94</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="26">
+        <v>360</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1370,6 +1546,12 @@
     <hyperlink ref="E51" r:id="rId18" xr:uid="{B2CEB87C-F0BF-AB40-B560-5ABFA74C10B7}"/>
     <hyperlink ref="E52" r:id="rId19" display="https://hr.vivo.com/wt/vivo/web/index/vivoWebApplyRecord!listApplyPosition?needStatusFlows=true&amp;operational=7bd02db8a2bd5faa8d4a0c215dd18cfa09667e6e8bf3c9ff9dc8098d3df7d501a1e80a694eae1c278635d13155f54f9ef0e75e1827edde32738241b886b0f31cf7f0724d311e52dd4544fd324a642988754ff736138ff16ce4747a20c9f64a9960b2a87a52e4e6a3" xr:uid="{60263676-3C28-DC43-BE56-96F21BBB733A}"/>
     <hyperlink ref="E53" r:id="rId20" xr:uid="{24269EEF-542B-FA48-AFDC-ED3D1C0A3123}"/>
+    <hyperlink ref="E54" r:id="rId21" xr:uid="{32C919C4-C7A0-164C-ADBF-C49DFBCE8BA2}"/>
+    <hyperlink ref="E55" r:id="rId22" location="/jobs?commitment=%E5%85%A8%E8%81%8C&amp;zhineng=82130&amp;page=1" xr:uid="{EF1E443C-4BEB-AA43-B558-E9302AA9E033}"/>
+    <hyperlink ref="E57" r:id="rId23" xr:uid="{424BD5F1-65B6-5D40-AF0F-CF3E685619B3}"/>
+    <hyperlink ref="E58" r:id="rId24" xr:uid="{1978863D-1E1E-034C-8A76-EDBA7B1F6C89}"/>
+    <hyperlink ref="E46" r:id="rId25" xr:uid="{B92EDE51-4A00-214A-A3F4-14DECB4861B7}"/>
+    <hyperlink ref="E59" r:id="rId26" location="/campus/resume/position/preview/45" xr:uid="{05A33DCB-F4B3-1348-8F6C-AD306EE088BF}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/已投简历公司统计.xlsx
+++ b/已投简历公司统计.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Documents/个人资料/remoteWord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61273107-08B6-B34F-85E5-0F4F0DA6CC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C33CB-8594-C24A-8DF7-AB31CA3A4546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="18280" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="540" windowWidth="18280" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
   <si>
     <t>公司名称</t>
   </si>
@@ -398,18 +398,179 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>咪咕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州银行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEIN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.sheincorp.cn/CampusRecruiting.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火通信</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/whfhtx/73922#/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.migu.cn/about/join/graduate/job/detail/MG8765144217.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://join.fanruan.com/campus</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫汉达</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/jobs/center</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>http://sugon.zhiye.com/Portal/Apply/Index</t>
-  </si>
-  <si>
-    <t>咪咕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州银行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中新赛克</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/myDelivery.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/tesla/41460#/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.bigo.sg/campus_apply/bigo/1018/#/page/2023%E5%B1%8A%E5%BA%94%E5%B1%8A%E7%94%9F%E6%8B%9B%E8%81%98</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波银行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.05</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhaopin.nbcb.com.cn/#/dashboard</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>云智研发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.06</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app-tc.mokahr.com/campus-recruitment/csig/20001#/page/%E6%A0%A1%E5%9B%AD%E6%8B%9B%E8%81%98</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹏汽车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/xiaopeng/22?recommendCode=DSVkGPRZ#/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx64310b3064348282.hcmcloud.cn/recruit#/my_resume?to_apply_id=34867&amp;activity_id=2514&amp;detail_path=activeDelivery&amp;job_category=%E6%8A%80%E6%9C%AF%E7%B1%BB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐捷网络</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/ruijie/76072#/?anchorName=default_joblist&amp;sourceToken=</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣旺达</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sunwoda.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏小妍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/completed?rid=78803&amp;rnum=CC000788035&amp;taskId=&amp;productId=&amp;channelId=&amp;scjobs=CC000788035J00101517607</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信天翼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/tyzhjt/77943#/jobs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://maker.haier.net/client</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/nsfocus/29118#/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东方</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.boe.com/Portal/Resume/MyResume?isImport=1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -921,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1039,6 +1200,9 @@
       <c r="B10" s="2">
         <v>8.0500000000000007</v>
       </c>
+      <c r="E10" s="16" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
@@ -1171,6 +1335,9 @@
       <c r="B25" s="2">
         <v>8.1</v>
       </c>
+      <c r="E25" s="16" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
@@ -1184,8 +1351,11 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="26" t="s">
         <v>43</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1330,13 +1500,22 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="24" t="s">
         <v>72</v>
       </c>
+      <c r="B43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="24" t="s">
         <v>73</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1505,25 +1684,193 @@
       <c r="B60" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="24" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="25" t="s">
-        <v>112</v>
+      <c r="B61" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="6" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="24" t="s">
         <v>114</v>
       </c>
+      <c r="B63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1552,6 +1899,26 @@
     <hyperlink ref="E58" r:id="rId24" xr:uid="{1978863D-1E1E-034C-8A76-EDBA7B1F6C89}"/>
     <hyperlink ref="E46" r:id="rId25" xr:uid="{B92EDE51-4A00-214A-A3F4-14DECB4861B7}"/>
     <hyperlink ref="E59" r:id="rId26" location="/campus/resume/position/preview/45" xr:uid="{05A33DCB-F4B3-1348-8F6C-AD306EE088BF}"/>
+    <hyperlink ref="E63" r:id="rId27" xr:uid="{3195A41A-F416-1649-96DA-F1D664BC7C66}"/>
+    <hyperlink ref="E64" r:id="rId28" location="/" xr:uid="{C716B628-CCAD-7D4C-B6BE-F84AF1ABDB57}"/>
+    <hyperlink ref="E61" r:id="rId29" xr:uid="{8A4F9E54-BD21-9843-A7FE-5617259FA821}"/>
+    <hyperlink ref="E28" r:id="rId30" xr:uid="{727B9A4A-3960-F548-865C-E33B02A5C330}"/>
+    <hyperlink ref="E44" r:id="rId31" xr:uid="{F922CBF2-6092-DE4B-8A2D-452DB4D8B189}"/>
+    <hyperlink ref="E60" r:id="rId32" xr:uid="{92C1E319-78B2-F840-9DC2-4A3ADDA3E013}"/>
+    <hyperlink ref="E10" r:id="rId33" xr:uid="{E6A2BA81-1CF8-B542-9D86-60D02DB3B059}"/>
+    <hyperlink ref="E43" r:id="rId34" location="/" xr:uid="{EF1E7830-310A-CB4B-B2F0-2D625EEDCE3B}"/>
+    <hyperlink ref="E67" r:id="rId35" location="/page/2023%E5%B1%8A%E5%BA%94%E5%B1%8A%E7%94%9F%E6%8B%9B%E8%81%98" xr:uid="{01E7895A-7AB1-E843-A805-D7209C678E6C}"/>
+    <hyperlink ref="E68" r:id="rId36" location="/dashboard" xr:uid="{E5B3A23E-C41B-7243-BB26-00875A93926C}"/>
+    <hyperlink ref="E69" r:id="rId37" location="/page/%E6%A0%A1%E5%9B%AD%E6%8B%9B%E8%81%98" xr:uid="{97910581-F54A-8E4B-9F89-9ACE08E80DD7}"/>
+    <hyperlink ref="E70" r:id="rId38" location="/" xr:uid="{7D94CCBC-9C9B-EE4D-B175-9C59B237DC8F}"/>
+    <hyperlink ref="E71" r:id="rId39" location="/my_resume?to_apply_id=34867&amp;activity_id=2514&amp;detail_path=activeDelivery&amp;job_category=%E6%8A%80%E6%9C%AF%E7%B1%BB" xr:uid="{D5E281C0-58D6-4643-951E-CEBFA397A57E}"/>
+    <hyperlink ref="E72" r:id="rId40" location="/?anchorName=default_joblist&amp;sourceToken=" xr:uid="{0CEDD610-0282-7D4D-86E5-EEDD701A0762}"/>
+    <hyperlink ref="E73" r:id="rId41" xr:uid="{549E298E-2368-8441-B711-F0D5A7CA3C2E}"/>
+    <hyperlink ref="E74" r:id="rId42" xr:uid="{EB4BC650-ABDE-7C45-9C0E-F0CC69CDA05C}"/>
+    <hyperlink ref="E75" r:id="rId43" location="/jobs" xr:uid="{BD823D73-E79E-F245-8B0E-FFFBE588EFAA}"/>
+    <hyperlink ref="E76" r:id="rId44" xr:uid="{16067060-F245-4C46-9161-4B93FA0CA75F}"/>
+    <hyperlink ref="E25" r:id="rId45" location="/" xr:uid="{91F0C301-D012-834A-84D1-FFAF063059A0}"/>
+    <hyperlink ref="E77" r:id="rId46" xr:uid="{5608E43B-981D-2C4B-BEB6-D706002FC75C}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
